--- a/TIOBE.xlsx
+++ b/TIOBE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,20 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Change</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Programming Language</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Ratings</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Change in Ratings</t>
         </is>
@@ -473,17 +478,18 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Python</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>16.12%</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>+2.70%</t>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>18.04%</t>
         </is>
       </c>
     </row>
@@ -500,17 +506,18 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>https://www.tiobe.com/wp-content/themes/tiobe/tpci/images/up.png</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>C++</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>10.34%</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>-0.46%</t>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.04%</t>
         </is>
       </c>
     </row>
@@ -527,17 +534,18 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>https://www.tiobe.com/wp-content/themes/tiobe/tpci/images/down.png</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>C</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9.48%</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-2.08%</t>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.17%</t>
         </is>
       </c>
     </row>
@@ -554,17 +562,18 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Java</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>8.59%</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>-1.91%</t>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.16%</t>
         </is>
       </c>
     </row>
@@ -581,17 +590,18 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>C#</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>6.72%</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>-0.15%</t>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.39%</t>
         </is>
       </c>
     </row>
@@ -608,17 +618,18 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>JavaScript</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.79%</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>+0.68%</t>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.91%</t>
         </is>
       </c>
     </row>
@@ -630,22 +641,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Go</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.19%</t>
-        </is>
-      </c>
+          <t>https://www.tiobe.com/wp-content/themes/tiobe/tpci/images/up.png</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>+1.12%</t>
+          <t>SQL</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.21%</t>
         </is>
       </c>
     </row>
@@ -662,17 +674,18 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>https://www.tiobe.com/wp-content/themes/tiobe/tpci/images/down.png</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Visual Basic</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.08%</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>-0.82%</t>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.18%</t>
         </is>
       </c>
     </row>
@@ -684,22 +697,23 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Fortran</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.05%</t>
-        </is>
-      </c>
+          <t>https://www.tiobe.com/wp-content/themes/tiobe/tpci/images/up.png</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>+0.80%</t>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.03%</t>
         </is>
       </c>
     </row>
@@ -711,22 +725,23 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SQL</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.04%</t>
-        </is>
-      </c>
+          <t>https://www.tiobe.com/wp-content/themes/tiobe/tpci/images/upup.png</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>+0.57%</t>
+          <t>Fortran</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.79%</t>
         </is>
       </c>
     </row>
@@ -738,22 +753,23 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Delphi/Object Pascal</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.89%</t>
-        </is>
-      </c>
+          <t>https://www.tiobe.com/wp-content/themes/tiobe/tpci/images/up.png</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>+0.91%</t>
+          <t>MATLAB</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.72%</t>
         </is>
       </c>
     </row>
@@ -765,22 +781,23 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>MATLAB</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.34%</t>
-        </is>
-      </c>
+          <t>https://www.tiobe.com/wp-content/themes/tiobe/tpci/images/upup.png</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>+0.08%</t>
+          <t>Delphi/Object Pascal</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.63%</t>
         </is>
       </c>
     </row>
@@ -792,22 +809,23 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Rust</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.18%</t>
-        </is>
-      </c>
+          <t>https://www.tiobe.com/wp-content/themes/tiobe/tpci/images/down.png</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>+0.29%</t>
+          <t>PHP</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.46%</t>
         </is>
       </c>
     </row>
@@ -819,22 +837,23 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Ruby</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.16%</t>
-        </is>
-      </c>
+          <t>https://www.tiobe.com/wp-content/themes/tiobe/tpci/images/upup.png</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>+0.25%</t>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.28%</t>
         </is>
       </c>
     </row>
@@ -846,22 +865,23 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Scratch</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.15%</t>
-        </is>
-      </c>
+          <t>https://www.tiobe.com/wp-content/themes/tiobe/tpci/images/up.png</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>+0.08%</t>
+          <t>Ruby</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.28%</t>
         </is>
       </c>
     </row>
@@ -873,22 +893,23 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PHP</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.15%</t>
-        </is>
-      </c>
+          <t>https://www.tiobe.com/wp-content/themes/tiobe/tpci/images/up.png</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-0.27%</t>
+          <t>Swift</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.28%</t>
         </is>
       </c>
     </row>
@@ -900,22 +921,23 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Swift</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.13%</t>
-        </is>
-      </c>
+          <t>https://www.tiobe.com/wp-content/themes/tiobe/tpci/images/downdown.png</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>+0.25%</t>
+          <t>Assembly language</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.21%</t>
         </is>
       </c>
     </row>
@@ -927,22 +949,23 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Assembly language</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1.11%</t>
-        </is>
-      </c>
+          <t>https://www.tiobe.com/wp-content/themes/tiobe/tpci/images/upup.png</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>+0.10%</t>
+          <t>Kotlin</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.13%</t>
         </is>
       </c>
     </row>
@@ -954,22 +977,23 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>COBOL</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1.08%</t>
-        </is>
-      </c>
+          <t>https://www.tiobe.com/wp-content/themes/tiobe/tpci/images/down.png</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>+0.21%</t>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.11%</t>
         </is>
       </c>
     </row>
@@ -981,22 +1005,23 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Kotlin</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1.05%</t>
-        </is>
-      </c>
+          <t>https://www.tiobe.com/wp-content/themes/tiobe/tpci/images/downdown.png</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>+0.35%</t>
+          <t>Scratch</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.09%</t>
         </is>
       </c>
     </row>
